--- a/Projeto2/brahma.xlsx
+++ b/Projeto2/brahma.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Insper\2° semestre\Ciencia dos dados\CD17\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elcio\Desktop\FACULDADE\2° SEMESTRE\CIENCIAS DOS DADOS\analise_de_sentimentos\Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="284">
   <si>
     <t>Treinamento</t>
   </si>
@@ -915,7 +915,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1310,11 +1310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,755 +2527,1208 @@
       <c r="A151" t="s">
         <v>101</v>
       </c>
+      <c r="B151" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>102</v>
       </c>
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>103</v>
       </c>
+      <c r="B154" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>59</v>
       </c>
+      <c r="B155" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>104</v>
       </c>
+      <c r="B157" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>105</v>
       </c>
+      <c r="B158" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>106</v>
       </c>
+      <c r="B159" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1</v>
+      </c>
+      <c r="B301" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3285,11 +3738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,508 +4555,812 @@
       <c r="A101" t="s">
         <v>61</v>
       </c>
+      <c r="C101" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
+      <c r="C102" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>230</v>
       </c>
+      <c r="C104" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
+      <c r="C105" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>231</v>
       </c>
+      <c r="C107" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
+      <c r="C108" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>232</v>
       </c>
+      <c r="C110" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>279</v>
       </c>
+      <c r="C201" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>